--- a/output/CORLU 380 HADIMKOY GIS.xlsx
+++ b/output/CORLU 380 HADIMKOY GIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="8">
   <si>
     <t>GELIBOLU 380 UNIMAR KUZEY</t>
   </si>
@@ -512,8 +512,8 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>565</v>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
